--- a/Daily Status update Report 20042020.xlsx
+++ b/Daily Status update Report 20042020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="182">
   <si>
     <t>Sr.No</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>Prepared test scenarios for SO</t>
+  </si>
+  <si>
+    <t>1.Completed with Test Cases Writing for Collateral Deposit Cash - Checked-Checked- Security Deposit Scenario
+(for a. Created-&gt;Accepted-&gt; Settled
+b. Created-&gt;Accepted-&gt; Manually Settled)
+2. Discussed with Pruthvi on what Testcases should be included to cover CD284 broadcast message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared test cases for normal trade flow; Preparing test cases for rectified trade flow(1st 3 broadcast messages completed) </t>
   </si>
 </sst>
 </file>
@@ -49520,7 +49529,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -49937,7 +49946,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="90">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -49956,7 +49965,9 @@
       <c r="F11" s="40">
         <v>0.75</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>180</v>
+      </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -49977,7 +49988,7 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="30">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -49991,12 +50002,14 @@
         <v>8</v>
       </c>
       <c r="E12" s="36">
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="F12" s="40">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="G12" s="38"/>
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>181</v>
+      </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>

--- a/Daily Status update Report 20042020.xlsx
+++ b/Daily Status update Report 20042020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="183">
   <si>
     <t>Sr.No</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prepared test cases for normal trade flow; Preparing test cases for rectified trade flow(1st 3 broadcast messages completed) </t>
+  </si>
+  <si>
+    <t>Tosca Installation and Setup ; Started with the orange hrms automation</t>
   </si>
 </sst>
 </file>
@@ -49529,7 +49532,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -50049,7 +50052,9 @@
       <c r="F13" s="37">
         <v>0.75</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="41" t="s">
+        <v>182</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>

--- a/Daily Status update Report 20042020.xlsx
+++ b/Daily Status update Report 20042020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="184">
   <si>
     <t>Sr.No</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>Tosca Installation and Setup ; Started with the orange hrms automation</t>
+  </si>
+  <si>
+    <t>Working on PPT and "Test execution plan" for PT</t>
   </si>
 </sst>
 </file>
@@ -49532,7 +49535,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -49928,7 +49931,9 @@
       <c r="F10" s="37">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>183</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>

--- a/Daily Status update Report 20042020.xlsx
+++ b/Daily Status update Report 20042020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="190">
   <si>
     <t>Sr.No</t>
   </si>
@@ -592,6 +592,24 @@
   <si>
     <t>Working on PPT and "Test execution plan" for PT</t>
   </si>
+  <si>
+    <t>Clearing Use cases (Offline Position Limit) document understanding</t>
+  </si>
+  <si>
+    <t>Theoritical pricing walkthrough preparation</t>
+  </si>
+  <si>
+    <t>Review of Settlement Orchestartor cases review points</t>
+  </si>
+  <si>
+    <t>Review of Theoretical Prices Test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Review changes made by Archana Ma'am for SSI CD cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping of mindtree clearing test cases </t>
+  </si>
 </sst>
 </file>
 
@@ -607,21 +625,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -709,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -821,6 +843,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2337,7 +2364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -49535,7 +49564,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -49611,7 +49640,9 @@
       <c r="F2" s="34">
         <v>0.75</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="42" t="s">
+        <v>184</v>
+      </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -49651,7 +49682,9 @@
       <c r="F3" s="34">
         <v>0.75</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="43" t="s">
+        <v>185</v>
+      </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -49691,7 +49724,9 @@
       <c r="F4" s="34">
         <v>0.8125</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="44" t="s">
+        <v>186</v>
+      </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -49731,7 +49766,9 @@
       <c r="F5" s="34">
         <v>0.8125</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="44" t="s">
+        <v>187</v>
+      </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -49771,7 +49808,9 @@
       <c r="F6" s="34">
         <v>0.75</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>174</v>
+      </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -49811,7 +49850,9 @@
       <c r="F7" s="34">
         <v>0.75</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>188</v>
+      </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -49851,7 +49892,9 @@
       <c r="F8" s="34">
         <v>0.75</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="42" t="s">
+        <v>184</v>
+      </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
@@ -49891,7 +49934,9 @@
       <c r="F9" s="34">
         <v>0.75</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>189</v>
+      </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
